--- a/character.xlsx
+++ b/character.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaoriwarashina/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaoriwarashina/DragonKnightExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="19480" windowHeight="11900" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="19480" windowHeight="11900" tabRatio="500" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="charactor" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="skill" sheetId="7" r:id="rId8"/>
     <sheet name="skillLevel" sheetId="8" r:id="rId9"/>
     <sheet name="potentialCapacity" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -719,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -737,6 +738,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/character.xlsx
+++ b/character.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="19480" windowHeight="11900" tabRatio="500" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="1760" yWindow="740" windowWidth="17060" windowHeight="13600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="charactor" sheetId="1" r:id="rId1"/>
+    <sheet name="character" sheetId="1" r:id="rId1"/>
     <sheet name="charaFlg" sheetId="10" r:id="rId2"/>
-    <sheet name="reality" sheetId="4" r:id="rId3"/>
+    <sheet name="rarity " sheetId="4" r:id="rId3"/>
     <sheet name="growthType" sheetId="5" r:id="rId4"/>
     <sheet name="weaponTyp" sheetId="3" r:id="rId5"/>
     <sheet name="appearanceType" sheetId="2" r:id="rId6"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>realityName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">HN </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>skillLevelEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rarityName</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -728,13 +728,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -859,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -867,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -888,10 +888,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -912,10 +912,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +934,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -982,16 +982,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1012,10 +1012,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
